--- a/final_models_cross_validation/crossv_models.xlsx
+++ b/final_models_cross_validation/crossv_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\cross_validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\final_models_cross_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987BCCA-4195-4399-A467-C951D6E807C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E37ECAB-4FD2-40C5-92DE-A1DD576793B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2760" windowWidth="30660" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Own dataset</t>
   </si>
@@ -103,9 +103,6 @@
     <t>CGAN-DenseNet169*</t>
   </si>
   <si>
-    <t>CGAN-CNN-weights*</t>
-  </si>
-  <si>
     <t>* The CGAN model only ran on 40 epochs, I am going to rerun the models with a CGAN that did over 1400 epochs</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>* The CGAN model ran on 1000 epochs</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>CGAN-CNN*</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -176,8 +179,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,21 +625,21 @@
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,144 +647,250 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>0.95899999999999996</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.18629999999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="6">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.89229999999999998</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="I3" s="3">
         <v>0.98060000000000003</v>
       </c>
-      <c r="G3" s="3">
+      <c r="J3" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="K3" s="3">
         <v>0.98570000000000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="L3" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="M3" s="3">
         <v>0.98650000000000004</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="O3" s="3">
         <v>0.97130000000000005</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>0.95589999999999997</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.2117</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="6">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.88449999999999995</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.97640000000000005</v>
       </c>
-      <c r="G4" s="3">
+      <c r="J4" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K4" s="3">
         <v>0.98319999999999996</v>
       </c>
-      <c r="H4" s="3">
+      <c r="L4" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="M4" s="3">
         <v>0.98419999999999996</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="O4" s="3">
         <v>0.96640000000000004</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P4" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>0.96640000000000004</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.1706</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="6">
+        <v>2.29E-2</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.90990000000000004</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.9889</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J5" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.99219999999999997</v>
       </c>
-      <c r="H5" s="3">
+      <c r="L5" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M5" s="3">
         <v>0.99260000000000004</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="O5" s="3">
         <v>0.98429999999999995</v>
       </c>
-      <c r="K5" t="s">
+      <c r="P5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="R5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>0.96489999999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.18559999999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="6">
+        <v>3.49E-2</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.90669999999999995</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.98809999999999998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="J6" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="K6" s="3">
         <v>0.9919</v>
       </c>
-      <c r="H6" s="3">
+      <c r="L6" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M6" s="3">
         <v>0.99229999999999996</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="O6" s="3">
         <v>0.98370000000000002</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6">
+        <v>2.8E-3</v>
+      </c>
+      <c r="R6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -789,127 +898,147 @@
         <f>MAX(C3:C6)</f>
         <v>0.96640000000000004</v>
       </c>
-      <c r="D8" s="7">
-        <f>MIN(D3:D6)</f>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7">
+        <f>MIN(E3:E6)</f>
         <v>0.1706</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" ref="E8:I8" si="0">MAX(E3:E6)</f>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:O8" si="0">MAX(G3:G6)</f>
         <v>0.90990000000000004</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>0.9889</v>
       </c>
-      <c r="G8" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>0.99219999999999997</v>
       </c>
-      <c r="H8" s="4">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>0.99260000000000004</v>
       </c>
-      <c r="I8" s="4">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>0.98429999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>0.97450000000000003</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3"/>
+      <c r="E14" s="6">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="6"/>
+      <c r="G14" s="3">
         <v>0.91990000000000005</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="3"/>
+      <c r="K14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>0.97360000000000002</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3"/>
+      <c r="E15" s="6">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="6"/>
+      <c r="G15" s="3">
         <v>0.91720000000000002</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="3"/>
+      <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>0.98229999999999995</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3"/>
+      <c r="E16" s="6">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="6"/>
+      <c r="G16" s="3">
         <v>0.94059999999999999</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="3"/>
+      <c r="K16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>0.9778</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3"/>
+      <c r="E17" s="6">
         <v>0.1004</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="6"/>
+      <c r="G17" s="3">
         <v>0.93179999999999996</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" s="3"/>
+      <c r="K17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -917,90 +1046,93 @@
         <f>MAX(C14:C17)</f>
         <v>0.98229999999999995</v>
       </c>
-      <c r="D19" s="7">
-        <f>MIN(D14:D17)</f>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7">
+        <f>MIN(E14:E17)</f>
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" ref="E19" si="1">MAX(E14:E17)</f>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4">
+        <f t="shared" ref="G19" si="1">MAX(G14:G17)</f>
         <v>0.94059999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="C3 C4:D6">
     <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D6">
+  <conditionalFormatting sqref="C3 E3:F3 C4:F6">
     <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>$D$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H6">
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>$E$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+      <formula>$G$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J6">
     <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>$F$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
+      <formula>$I$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L6">
     <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>$G$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
+      <formula>$K$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:N6">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>$H$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
+      <formula>$M$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O6">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>$I$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C17">
+      <formula>$O$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:D17">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>$C$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E17">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>$E$8</formula>
+  <conditionalFormatting sqref="G14:H17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>$G$19</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0.9289</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>$G$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J17">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>$I$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:N17">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>$M$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O17">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>$O$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:F17">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$E$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F17">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>$F$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H17">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>$H$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I17">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>$I$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>$D$19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
